--- a/biology/Botanique/Drypetes_bipindensis/Drypetes_bipindensis.xlsx
+++ b/biology/Botanique/Drypetes_bipindensis/Drypetes_bipindensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Drypetes bipindensis est une espèce de plantes à fleurs de la famille des Euphorbiaceae selon la classification de Cronquist ou de la famille des Putranjivaceae selon la classification phylogénétique[2]. C'est un arbuste originaire d'Afrique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Drypetes bipindensis est une espèce de plantes à fleurs de la famille des Euphorbiaceae selon la classification de Cronquist ou de la famille des Putranjivaceae selon la classification phylogénétique. C'est un arbuste originaire d'Afrique.
 Son épithète spécifique fait référence à Bipindi, une localité au sud du Cameroun.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C’est un arbuste de 6 à 8 m de haut, à branches ramifiées[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C’est un arbuste de 6 à 8 m de haut, à branches ramifiées.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il pousse dans les forêts tropicales à 1 220-1 520 mètres d’altitude[2] de l’Afrique de l’Ouest jusqu’en Ouganda[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il pousse dans les forêts tropicales à 1 220-1 520 mètres d’altitude de l’Afrique de l’Ouest jusqu’en Ouganda.
 </t>
         </is>
       </c>
